--- a/properties.xlsx
+++ b/properties.xlsx
@@ -22,60 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">银行卡号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6226661603364782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否精华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张三</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">男</t>
-  </si>
-  <si>
-    <t xml:space="preserve">政治面貌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">团员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">籍贯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川成都</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202011090906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身份证号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510122200516236798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学历</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">家庭住址</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+  <si>
+    <t xml:space="preserve">网址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.baidu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮寄地址</t>
   </si>
   <si>
     <r>
@@ -86,7 +41,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">四川成都金牛区迎宾大道</t>
+      <t xml:space="preserve">武侯区航立中心</t>
     </r>
     <r>
       <rPr>
@@ -106,10 +61,309 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">栋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">楼</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门牌号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">栋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">号</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">公司名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天开智能科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系电话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮编</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wukong@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">日</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">书名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">论语</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">条形码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">银行卡号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6226661603364782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否精华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">男</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政治面貌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">团员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">籍贯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202011090906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身份证号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510122200516236798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学历</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家庭住址</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">四川成都金牛区迎宾大道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">号</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">紧急联系人</t>
   </si>
   <si>
@@ -129,6 +383,254 @@
   </si>
   <si>
     <t xml:space="preserve">孙悟空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参保单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省财政厅扶贫办</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保单号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD202010250001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护照号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HZ98634882556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">银行网点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都光大银行世纪城支行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">毕业院校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电子科技大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">毕业时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">导师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张一鸣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博导</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷老板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结束时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会议时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公告时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开票时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收货日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签收日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">班级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">影片名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上映年份</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">年</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">城市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华西第一人民医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐医生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">评审意见</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台风等级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地震等级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空气质量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优良</t>
+  </si>
+  <si>
+    <t xml:space="preserve">降雨概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">项目</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">项目经理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微信支付</t>
+  </si>
+  <si>
+    <t xml:space="preserve">付款方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付宝</t>
   </si>
 </sst>
 </file>
@@ -139,7 +641,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +671,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +697,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,8 +721,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,14 +738,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -392,10 +910,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="1" sqref="A1:B20 A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,174 +922,235 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
+    <row r="1" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>138888888</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>200.5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>300.98</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>138888888</v>
@@ -579,55 +1158,267 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://www.baidu.com"/>
+    <hyperlink ref="B14" r:id="rId2" display="wukong@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -646,7 +1437,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,7 +1460,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
